--- a/Data/HS/HS.C1 - Benchmark 2019 Edited.xlsx
+++ b/Data/HS/HS.C1 - Benchmark 2019 Edited.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HS.C1.original" sheetId="1" r:id="rId1"/>
     <sheet name="HS.C1.letters" sheetId="2" r:id="rId2"/>
     <sheet name="HS.C1.numbers" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1016,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AS1"/>
+    <sheetView topLeftCell="S91" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:AS133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18841,8 +18841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36142,7 +36142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="AB115" sqref="AB115"/>
     </sheetView>
   </sheetViews>
